--- a/example_data/example_data.xlsx
+++ b/example_data/example_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hristo_td/Desktop/beeRapp/example_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hristo_td/Documents/GitHub/beeRapp/example_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C4B678-56A9-464E-A4AD-F5F2D1A27E6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{200A727B-8B5D-F24B-B4A0-F078AB602BC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="27840" windowHeight="15760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27840" windowHeight="15760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="grand_table" sheetId="1" r:id="rId1"/>
@@ -335,9 +335,6 @@
     <t>min10_freezing</t>
   </si>
   <si>
-    <t>min11_freezing</t>
-  </si>
-  <si>
     <t>44_cm_zone_freezing</t>
   </si>
   <si>
@@ -465,6 +462,9 @@
   </si>
   <si>
     <t>Distance to Cotton (%)</t>
+  </si>
+  <si>
+    <t>dist_cotton</t>
   </si>
 </sst>
 </file>
@@ -840,8 +840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA129"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -857,79 +857,79 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" t="s">
         <v>92</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>93</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>94</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>95</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>96</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>97</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>98</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>99</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>100</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>101</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>102</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
+        <v>104</v>
+      </c>
+      <c r="P1" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>106</v>
+      </c>
+      <c r="R1" t="s">
+        <v>107</v>
+      </c>
+      <c r="S1" t="s">
+        <v>108</v>
+      </c>
+      <c r="T1" t="s">
+        <v>109</v>
+      </c>
+      <c r="U1" t="s">
+        <v>110</v>
+      </c>
+      <c r="V1" t="s">
+        <v>111</v>
+      </c>
+      <c r="W1" t="s">
+        <v>112</v>
+      </c>
+      <c r="X1" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z1" t="s">
         <v>103</v>
-      </c>
-      <c r="O1" t="s">
-        <v>105</v>
-      </c>
-      <c r="P1" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>107</v>
-      </c>
-      <c r="R1" t="s">
-        <v>108</v>
-      </c>
-      <c r="S1" t="s">
-        <v>109</v>
-      </c>
-      <c r="T1" t="s">
-        <v>110</v>
-      </c>
-      <c r="U1" t="s">
-        <v>111</v>
-      </c>
-      <c r="V1" t="s">
-        <v>112</v>
-      </c>
-      <c r="W1" t="s">
-        <v>113</v>
-      </c>
-      <c r="X1" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>104</v>
       </c>
       <c r="AA1" t="s">
         <v>91</v>
@@ -8013,8 +8013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2EFA5D5-A0D8-7A47-9571-ED1A302EABFD}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -8028,7 +8028,7 @@
         <v>89</v>
       </c>
       <c r="B1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C1" t="s">
         <v>90</v>
@@ -8036,281 +8036,281 @@
     </row>
     <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
-        <v>92</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C27" t="s">
         <v>91</v>

--- a/example_data/example_data.xlsx
+++ b/example_data/example_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hristo_td/Documents/GitHub/beeRapp/example_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{200A727B-8B5D-F24B-B4A0-F078AB602BC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{537A5E78-0900-4445-8C3F-CE85B9D88A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="27840" windowHeight="15760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="10000" windowHeight="13420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="grand_table" sheetId="1" r:id="rId1"/>
@@ -471,7 +471,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -499,6 +499,20 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -520,10 +534,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -840,50 +856,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA129"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.1640625" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" customWidth="1"/>
+    <col min="10" max="10" width="12.1640625" customWidth="1"/>
+    <col min="11" max="11" width="12.5" customWidth="1"/>
+    <col min="12" max="12" width="12.1640625" customWidth="1"/>
+    <col min="13" max="13" width="19.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="3" t="s">
         <v>99</v>
       </c>
       <c r="L1" t="s">
@@ -8014,12 +8037,13 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="43.1640625" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8325,697 +8349,697 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E35268C-1E3D-E247-99C9-C1E1BF8E0FCD}">
   <dimension ref="A1:B86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
+      <c r="A65" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
+      <c r="A66" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
+      <c r="A67" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
+      <c r="A68" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
+      <c r="A69" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
+      <c r="A70" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A71" s="1" t="s">
+      <c r="A71" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
+      <c r="A72" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
+      <c r="A73" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A74" s="1" t="s">
+      <c r="A74" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A75" s="1" t="s">
+      <c r="A75" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A76" s="1" t="s">
+      <c r="A76" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A77" s="1" t="s">
+      <c r="A77" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A78" s="1" t="s">
+      <c r="A78" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B78" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A79" s="1" t="s">
+      <c r="A79" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A80" s="1" t="s">
+      <c r="A80" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B80" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A81" s="1" t="s">
+      <c r="A81" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B81" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A82" s="1" t="s">
+      <c r="A82" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A83" s="1" t="s">
+      <c r="A83" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B83" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A84" s="1" t="s">
+      <c r="A84" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B84" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A85" s="1" t="s">
+      <c r="A85" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B85" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A86" s="1" t="s">
+      <c r="A86" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B86" s="4" t="s">
         <v>88</v>
       </c>
     </row>

--- a/example_data/example_data.xlsx
+++ b/example_data/example_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11009"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hristo_td/Documents/GitHub/beeRapp/example_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{537A5E78-0900-4445-8C3F-CE85B9D88A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5567C602-7BB2-9345-8E02-08DBBD328E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="10000" windowHeight="13420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="16320" windowHeight="13420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="grand_table" sheetId="1" r:id="rId1"/>
@@ -458,13 +458,13 @@
     <t xml:space="preserve">0 cm Zone Freezing </t>
   </si>
   <si>
-    <t>Freezing Time (m)</t>
-  </si>
-  <si>
-    <t>Distance to Cotton (%)</t>
-  </si>
-  <si>
     <t>dist_cotton</t>
+  </si>
+  <si>
+    <t>Freezing Time (%)</t>
+  </si>
+  <si>
+    <t>Distance to Cotton (cm)</t>
   </si>
 </sst>
 </file>
@@ -883,7 +883,7 @@
         <v>115</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>92</v>
@@ -8036,8 +8036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2EFA5D5-A0D8-7A47-9571-ED1A302EABFD}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -8060,7 +8060,7 @@
     </row>
     <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
@@ -8069,11 +8069,11 @@
     </row>
     <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.2">
@@ -8349,7 +8349,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E35268C-1E3D-E247-99C9-C1E1BF8E0FCD}">
   <dimension ref="A1:B86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
